--- a/biology/Zoologie/Ctenophryne_minor/Ctenophryne_minor.xlsx
+++ b/biology/Zoologie/Ctenophryne_minor/Ctenophryne_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophryne minor est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophryne minor est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de Cauca en Colombie. Elle n'est connue que dans la partie supérieure du bassin du Río Saija, entre 100 et 200 m d'altitude[1],[2]. Toutefois son aire de répartition pourrait être plus importante, ce qui reste à confirmer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de Cauca en Colombie. Elle n'est connue que dans la partie supérieure du bassin du Río Saija, entre 100 et 200 m d'altitude,. Toutefois son aire de répartition pourrait être plus importante, ce qui reste à confirmer.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophryne minor mesure de 32 à 43 mm pour les mâles et de 42 à 55 mm pour les femelles. Son dos est brun gris, taché de brun, et ses flancs sont noirs, ces deux zones étant séparées par une ligne rosâtre. Son ventre est noir avec de petits points bleu pâle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophryne minor mesure de 32 à 43 mm pour les mâles et de 42 à 55 mm pour les femelles. Son dos est brun gris, taché de brun, et ses flancs sont noirs, ces deux zones étant séparées par une ligne rosâtre. Son ventre est noir avec de petits points bleu pâle.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin minor, « petit », lui a été donné en référence à sa petite taille comparativement à celle de Ctenophryne geayi, l'espèce type de ce genre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin minor, « petit », lui a été donné en référence à sa petite taille comparativement à celle de Ctenophryne geayi, l'espèce type de ce genre.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zweifel &amp; Myers, 1989 : A new frog of the genus Ctenophryne (Microhylidae) from the Pacific lowlands of northwestern South America. American Museum Novitates,  no 2947, p. 1-16 (texte intégral).</t>
         </is>
